--- a/qknowles-files-to-show-work/US-680_Task-776_Sprint-10.xlsx
+++ b/qknowles-files-to-show-work/US-680_Task-776_Sprint-10.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d3d5003cbb0e73c/Documents/College/_Subjects/Software/SER-401_Computing Capstone/Project/Design/documentation/qknowles-files-to-show-work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="11_F25DC773A252ABDACC104870E11D69D65BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C049BF15-CCAB-4FBB-9142-02991D6C727F}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="11_F25DC773A252ABDACC104870E11D69D65BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF42AC7B-F7FA-40BF-AEA8-2909D2128357}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t>Add New Tab</t>
   </si>
@@ -114,6 +125,61 @@
   <si>
     <t>w/ correct data and
 w/ required empty</t>
+  </si>
+  <si>
+    <t>Account Settings</t>
+  </si>
+  <si>
+    <t>new passwords not matching</t>
+  </si>
+  <si>
+    <t>new password same as old</t>
+  </si>
+  <si>
+    <t>must display "current password and new password must be different"</t>
+  </si>
+  <si>
+    <t>must display "new password and confirmation must match"</t>
+  </si>
+  <si>
+    <t>w/ bad email address</t>
+  </si>
+  <si>
+    <t>must disallow entries that are not emails.
+must display the appropriate error.</t>
+  </si>
+  <si>
+    <t>Leave Membership</t>
+  </si>
+  <si>
+    <t>own project</t>
+  </si>
+  <si>
+    <t>someone elses project</t>
+  </si>
+  <si>
+    <t>Save Project</t>
+  </si>
+  <si>
+    <t>Add Member</t>
+  </si>
+  <si>
+    <t>Delete member</t>
+  </si>
+  <si>
+    <t>not functional</t>
+  </si>
+  <si>
+    <t>Edit Tab Name</t>
+  </si>
+  <si>
+    <t>w/ no tabs</t>
+  </si>
+  <si>
+    <t>display "no tab"</t>
+  </si>
+  <si>
+    <t>Delete Tab</t>
   </si>
 </sst>
 </file>
@@ -184,12 +250,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -225,6 +288,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,246 +557,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.36328125" style="3"/>
-    <col min="4" max="4" width="32" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.90625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35.90625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="47.08984375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="18.36328125" style="3"/>
+    <col min="1" max="1" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" style="2"/>
+    <col min="10" max="10" width="36.6328125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="18.36328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="H9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="H10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/qknowles-files-to-show-work/US-680_Task-776_Sprint-10.xlsx
+++ b/qknowles-files-to-show-work/US-680_Task-776_Sprint-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d3d5003cbb0e73c/Documents/College/_Subjects/Software/SER-401_Computing Capstone/Project/Design/documentation/qknowles-files-to-show-work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="11_F25DC773A252ABDACC104870E11D69D65BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF42AC7B-F7FA-40BF-AEA8-2909D2128357}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="11_F25DC773A252ABDACC104870E11D69D65BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{221A460D-CEBF-4DB5-A74D-D824F756F9B3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
   <si>
     <t>Add New Tab</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>w/ a datatype</t>
-  </si>
-  <si>
-    <t>must display a success message</t>
   </si>
   <si>
     <t>must be "nothing to update"</t>
@@ -89,10 +86,6 @@
   <si>
     <t>display error and
 ensure no changes made.</t>
-  </si>
-  <si>
-    <t>must show existing values and
-must default to existing values if empty</t>
   </si>
   <si>
     <t>must display one error on open and
@@ -559,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,28 +589,28 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
@@ -628,20 +621,22 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -676,9 +671,9 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -688,9 +683,7 @@
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
@@ -699,7 +692,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
       <c r="L4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -715,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -736,18 +729,15 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
@@ -768,7 +758,7 @@
     </row>
     <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -798,7 +788,7 @@
     </row>
     <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -842,7 +832,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>11</v>
@@ -867,14 +857,12 @@
       <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>11</v>
@@ -888,7 +876,7 @@
     </row>
     <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -918,7 +906,7 @@
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -939,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -950,7 +938,7 @@
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
@@ -971,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -982,7 +970,7 @@
     </row>
     <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>11</v>
@@ -1003,10 +991,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1014,7 +1002,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1032,7 +1020,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1050,7 +1038,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1064,10 +1052,10 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
